--- a/src/main/resources/egovframework/excel/deepRacer.xlsx
+++ b/src/main/resources/egovframework/excel/deepRacer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INTELLJ_PROJECT\DEEPRACER\src\main\resources\egovframework\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575FDBD8-B2F2-4866-9EB3-BE8C57F37747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842E211B-F224-4F92-98E8-491CA4742C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23700" yWindow="1644" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="정산내역" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>딥레이서 기록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${data.usrNm}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +70,10 @@
     <t>${data.rn}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>딥레이서 전체 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -82,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,14 +93,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color indexed="23"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -172,16 +164,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="22"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -250,15 +242,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="6"/>
       </left>
@@ -273,69 +256,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="9">
     <cellStyle name="?" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="강조색2" xfId="2" builtinId="33"/>
     <cellStyle name="㼿" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -344,7 +336,6 @@
     <cellStyle name="㼿㼿?" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="㼿㼿㼿" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="㼿㼿㼿㼿㼿" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="제목 1" xfId="9" builtinId="16"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -629,7 +620,7 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -645,87 +636,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>7</v>
+      <c r="A1" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
     </row>
     <row r="2" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:23" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:23" ht="78" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
@@ -756,19 +747,19 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -1403,12 +1394,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:W2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
